--- a/data/historical_estimates/raw/Carretta_Enriquez_2012a.xlsx
+++ b/data/historical_estimates/raw/Carretta_Enriquez_2012a.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6733B8-0489-264B-8F25-428F5E9DD1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CB92F-31B6-2542-8324-AAA181E5AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="9700" yWindow="11700" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>reference</t>
   </si>
@@ -93,14 +94,43 @@
   </si>
   <si>
     <t>Carretta &amp; Enriquez 2012a</t>
+  </si>
+  <si>
+    <t>nvessels</t>
+  </si>
+  <si>
+    <t>mesh_in_avg</t>
+  </si>
+  <si>
+    <t>sets_tot_est</t>
+  </si>
+  <si>
+    <t>sets_obs</t>
+  </si>
+  <si>
+    <t>obs_perc</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>ests are from 2009 logbook data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,4 +766,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCCD356-913A-CA4E-84BE-7AA08A6E9D44}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>7.2</v>
+      </c>
+      <c r="D2">
+        <v>1724</v>
+      </c>
+      <c r="E2">
+        <v>216</v>
+      </c>
+      <c r="F2">
+        <v>12.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Carretta_Enriquez_2012a.xlsx
+++ b/data/historical_estimates/raw/Carretta_Enriquez_2012a.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0CB92F-31B6-2542-8324-AAA181E5AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C718BC11-5DF6-614A-A03D-D9EEA4D1491B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="11700" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="13480" yWindow="6680" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
     <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>reference</t>
   </si>
@@ -102,19 +91,22 @@
     <t>mesh_in_avg</t>
   </si>
   <si>
-    <t>sets_tot_est</t>
-  </si>
-  <si>
-    <t>sets_obs</t>
-  </si>
-  <si>
-    <t>obs_perc</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>ests are from 2009 logbook data</t>
+  </si>
+  <si>
+    <t>nsets</t>
+  </si>
+  <si>
+    <t>nsets_obs</t>
+  </si>
+  <si>
+    <t>psets_obs</t>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
 </sst>
 </file>
@@ -478,7 +470,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,32 +762,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCCD356-913A-CA4E-84BE-7AA08A6E9D44}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -803,28 +802,40 @@
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>7.2</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1724</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>216</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>12.5</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
